--- a/Final Project Part1/TEST CASE.xlsx
+++ b/Final Project Part1/TEST CASE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\לימודים\בדיקות תוכנה ידני - עם יפעת\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majdh\OneDrive\שולחן העבודה\Automation_bootcamp\Final Project Part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E5EA3A-5A31-46D9-9BCF-413DEF764F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD52280-FE5B-4E52-A3F0-E9E391BFE2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8880" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="139">
   <si>
     <t>Name of the test case</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
     <t>Target of the test case</t>
   </si>
   <si>
@@ -69,6 +66,435 @@
   </si>
   <si>
     <t>Expected result</t>
+  </si>
+  <si>
+    <t>valid sign in test</t>
+  </si>
+  <si>
+    <t>make sure that sign in works propely</t>
+  </si>
+  <si>
+    <t>13/07/2024</t>
+  </si>
+  <si>
+    <t>valid email and password</t>
+  </si>
+  <si>
+    <t>Majd Hassoun</t>
+  </si>
+  <si>
+    <t>The pop up will disappear and selected cookies will be accepted.</t>
+  </si>
+  <si>
+    <t>Click accept cookies button on the pop up</t>
+  </si>
+  <si>
+    <t>Click sign in button</t>
+  </si>
+  <si>
+    <t>Enter the email in the input bar which is 
+is located in the middle of the screen</t>
+  </si>
+  <si>
+    <t>The input bar will be filled with your data</t>
+  </si>
+  <si>
+    <t>Click continue button</t>
+  </si>
+  <si>
+    <t>The page will move to the first sign in page</t>
+  </si>
+  <si>
+    <t>The page will move to the second sign in page</t>
+  </si>
+  <si>
+    <t>Enter the email and password in the input bars which are
+is located in the middle of the screen</t>
+  </si>
+  <si>
+    <t>The input bars will be filled with your data</t>
+  </si>
+  <si>
+    <t>Click sign in button at the screen top right
+side</t>
+  </si>
+  <si>
+    <t>The page will move to home page with the user signed in</t>
+  </si>
+  <si>
+    <t>Invalid sign in test</t>
+  </si>
+  <si>
+    <t>Make sure that invalid sign in get blocked</t>
+  </si>
+  <si>
+    <t>valid username, invalid password</t>
+  </si>
+  <si>
+    <t>connected to the internet laptop with up to 
+date chrome browser</t>
+  </si>
+  <si>
+    <t>Enter the email and password in the input
+ bars which are is located in the middle of 
+the screen</t>
+  </si>
+  <si>
+    <t>"The email or password is invalid. Authentication failed" message
+will appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book search while signed in </t>
+  </si>
+  <si>
+    <t>Run sign in flow as mentioned in the first test case</t>
+  </si>
+  <si>
+    <t>valid email and password, book name</t>
+  </si>
+  <si>
+    <t>Enter the book name in the search bar that
+is located in the center of the home page</t>
+  </si>
+  <si>
+    <t>Click search button</t>
+  </si>
+  <si>
+    <t>The page will move to the search results page</t>
+  </si>
+  <si>
+    <t>Click on the first result name</t>
+  </si>
+  <si>
+    <t>The page will move to the book's page</t>
+  </si>
+  <si>
+    <t>Check if the book's name that was inserted
+is displayed as the result's title</t>
+  </si>
+  <si>
+    <t>make sure that search function works 
+propely and the book's name is being disaplyed in the book's page (while signed in).</t>
+  </si>
+  <si>
+    <t>Book summary display</t>
+  </si>
+  <si>
+    <t>make sure that book's summary is being 
+displayed in the book's page</t>
+  </si>
+  <si>
+    <t>Check if the book's summary is
+ displayed under the books title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book name should be displayed as the title at the top of the 
+book page </t>
+  </si>
+  <si>
+    <t>The book summary should be displayed under the book title</t>
+  </si>
+  <si>
+    <t>Book availibality display</t>
+  </si>
+  <si>
+    <t>Check if the book availability is
+ displayed at the buttom of the book page</t>
+  </si>
+  <si>
+    <t>make sure that book availability is being
+displayed in the book's page</t>
+  </si>
+  <si>
+    <t>The book availability should be displayed at the book page buttom</t>
+  </si>
+  <si>
+    <t>save search test</t>
+  </si>
+  <si>
+    <t>make sure that search saving function works propely</t>
+  </si>
+  <si>
+    <t>valid email and password, search text</t>
+  </si>
+  <si>
+    <t>Click on the save search button which is
+located at the top of the page</t>
+  </si>
+  <si>
+    <t>A pop up window will appaer with the search text and a button to 
+confirm the search saving</t>
+  </si>
+  <si>
+    <t>Confirm the search saving by clicking the
+save button in the buttom of the page</t>
+  </si>
+  <si>
+    <t>The serach should be saved and stored in the saved searches page</t>
+  </si>
+  <si>
+    <t>Click on the profile button at the top right 
+side</t>
+  </si>
+  <si>
+    <t>A drop list will appear including "Saved Searched" button</t>
+  </si>
+  <si>
+    <t>Click on Saved Searches button</t>
+  </si>
+  <si>
+    <t>The page will move to the saved searches page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the search text is being displayed
+</t>
+  </si>
+  <si>
+    <t>The search text should be displayed in the middle of the page</t>
+  </si>
+  <si>
+    <t>delete saved search</t>
+  </si>
+  <si>
+    <t>make sure that deleting saved search 
+function works propely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Click the checkbox near the search name</t>
+  </si>
+  <si>
+    <t>Blue V sign will fill the checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click delete button in the page right side
+</t>
+  </si>
+  <si>
+    <t>The saved search will be deleted, and "no saved searches" 
+message should be displayed</t>
+  </si>
+  <si>
+    <t>List create and save</t>
+  </si>
+  <si>
+    <t>make sure that create and save list works
+ propely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid email and password, book name, 
+list name, list discreption </t>
+  </si>
+  <si>
+    <t>Click add to list button which is located at
+right side of the page</t>
+  </si>
+  <si>
+    <t>A pop up window will open which includes input bars and
+ confirmation button</t>
+  </si>
+  <si>
+    <t>Enter the list name in the first input bar</t>
+  </si>
+  <si>
+    <t>Enter the list discreption in the second 
+input bar</t>
+  </si>
+  <si>
+    <t>Click the Confirn button at the bottom right
+side of the pop up window</t>
+  </si>
+  <si>
+    <t>List should be created and saved in the "Lists" page</t>
+  </si>
+  <si>
+    <t>A drop list will appear including "Lists" button</t>
+  </si>
+  <si>
+    <t>Click on Lists button</t>
+  </si>
+  <si>
+    <t>The page will move to the lists page</t>
+  </si>
+  <si>
+    <t>The list should be created and saved in the lists page and the list
+ name that was inserted should be displayed in the middle of the 
+page</t>
+  </si>
+  <si>
+    <t>Book added to list</t>
+  </si>
+  <si>
+    <t>make sure that create and save list works
+ propely and the book is stored in it</t>
+  </si>
+  <si>
+    <t>Check if the list was created</t>
+  </si>
+  <si>
+    <t>Check the book was added</t>
+  </si>
+  <si>
+    <t>The list should be created and saved in the lists page and the book should be saved in the list and displayed in it.</t>
+  </si>
+  <si>
+    <t>Delete list</t>
+  </si>
+  <si>
+    <t>make sure that delete list works
+ propely</t>
+  </si>
+  <si>
+    <t>Click on the list name</t>
+  </si>
+  <si>
+    <t>The page will move to the selected list page</t>
+  </si>
+  <si>
+    <t>Click on the options button under the list 
+header title</t>
+  </si>
+  <si>
+    <t>Drop list will appear includes "Delete List" button</t>
+  </si>
+  <si>
+    <t>Click on the "Delete List" button</t>
+  </si>
+  <si>
+    <t>A pop up window will open with a button to confirm deleting the list</t>
+  </si>
+  <si>
+    <t>Click on the "Confirm" button</t>
+  </si>
+  <si>
+    <t>The list will be deleted and the page will return to the "Lists" page
+with "You do not have any lists on your own" message displayed</t>
+  </si>
+  <si>
+    <t>search and favorite library</t>
+  </si>
+  <si>
+    <t>make sure that the function works properly</t>
+  </si>
+  <si>
+    <t>valid email and password, library name</t>
+  </si>
+  <si>
+    <t>Click on "Libraries" button in the menu
+ header</t>
+  </si>
+  <si>
+    <t>The page will move to the "Libraries" page</t>
+  </si>
+  <si>
+    <t>Enter the library name in the input bar at 
+the top of the page</t>
+  </si>
+  <si>
+    <t>The page will move the the selected library search results page</t>
+  </si>
+  <si>
+    <t>Click the favorite library button</t>
+  </si>
+  <si>
+    <t>The library will be favorited and saved in the "Favorite Libraries" 
+page</t>
+  </si>
+  <si>
+    <t>List should be created and saved in the "Favorite Libraries"  page</t>
+  </si>
+  <si>
+    <t>Click on "Favorite Libraries"  button</t>
+  </si>
+  <si>
+    <t>The page will move to the "Favorite Libraries"  page</t>
+  </si>
+  <si>
+    <t>Check if the library was saved in the favorites page and its name is present there</t>
+  </si>
+  <si>
+    <t>The library should be saved and its name will be displayed</t>
+  </si>
+  <si>
+    <t>Test Case 1</t>
+  </si>
+  <si>
+    <t>Test Case 2</t>
+  </si>
+  <si>
+    <t>Test Case 3</t>
+  </si>
+  <si>
+    <t>Test Case 4</t>
+  </si>
+  <si>
+    <t>Test Case 5</t>
+  </si>
+  <si>
+    <t>Test Case 6</t>
+  </si>
+  <si>
+    <t>Test Case 7</t>
+  </si>
+  <si>
+    <t>Test Case 8</t>
+  </si>
+  <si>
+    <t>Test Case 9</t>
+  </si>
+  <si>
+    <t>Test Case 10</t>
+  </si>
+  <si>
+    <t>Test Case 11</t>
+  </si>
+  <si>
+    <t>unfavorite library</t>
+  </si>
+  <si>
+    <t>Click on the remove favorite button</t>
+  </si>
+  <si>
+    <t>A pop up windwo will appear to confirm the action</t>
+  </si>
+  <si>
+    <t>Click on remove button to confirm the 
+action</t>
+  </si>
+  <si>
+    <t>The library will be deleted and "You do not have any favorite libraries" message will appear</t>
+  </si>
+  <si>
+    <t>Test Case 12</t>
+  </si>
+  <si>
+    <t>Test Case 13</t>
+  </si>
+  <si>
+    <t>Check if the first presented library is the 
+closest to the user's location</t>
+  </si>
+  <si>
+    <t>The first showed library should has the smallest distance from the user's location</t>
+  </si>
+  <si>
+    <t>Test Case 14</t>
+  </si>
+  <si>
+    <t>search with filter</t>
+  </si>
+  <si>
+    <t>valid email and password, item name, item
+type</t>
+  </si>
+  <si>
+    <t>return closest library</t>
+  </si>
+  <si>
+    <t>????????bug?????????</t>
   </si>
 </sst>
 </file>
@@ -79,7 +505,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -160,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -176,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,7 +624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -526,103 +955,141 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>3</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>4</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>5</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -651,6 +1118,2227 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>3</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>5</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>9</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>1</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>2</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>3</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>5</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>7</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>9</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>1</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>2</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>3</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>4</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>5</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>6</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>7</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>8</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>9</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>10</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>1</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>2</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>3</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>4</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>5</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>6</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>7</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>8</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>9</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>10</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>1</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>2</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>3</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>4</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>5</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>6</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>7</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>8</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>9</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>10</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>1</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>2</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="7">
+        <v>3</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>4</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A198" s="7">
+        <v>5</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>6</v>
+      </c>
+      <c r="B199" s="8"/>
+      <c r="C199" s="3"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>7</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+    </row>
+    <row r="201" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>8</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C201" s="3"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>9</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>10</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A226" s="7">
+        <v>1</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
+        <v>2</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="7">
+        <v>3</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
+        <v>4</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
+        <v>5</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
+        <v>6</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A232" s="7">
+        <v>7</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
+        <v>8</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="7">
+        <v>9</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
+        <v>10</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A255" s="7">
+        <v>1</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A256" s="7">
+        <v>2</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
+        <v>3</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
+        <v>4</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <v>5</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A260" s="7">
+        <v>6</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
+        <v>7</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A262" s="7">
+        <v>8</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="7">
+        <v>9</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A264" s="7">
+        <v>10</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A285" s="7">
+        <v>1</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A286" s="7">
+        <v>2</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="7">
+        <v>3</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A288" s="7">
+        <v>4</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="7">
+        <v>5</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A290" s="7">
+        <v>6</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A291" s="7">
+        <v>7</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A292" s="7">
+        <v>8</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="7">
+        <v>9</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="7">
+        <v>10</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A295" s="7">
+        <v>11</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A296" s="7">
+        <v>12</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A297" s="7">
+        <v>13</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A316" s="7">
+        <v>1</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A317" s="7">
+        <v>2</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A318" s="7">
+        <v>3</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="7">
+        <v>4</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A320" s="7">
+        <v>5</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A321" s="7">
+        <v>6</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="7">
+        <v>7</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A323" s="7">
+        <v>8</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="7">
+        <v>9</v>
+      </c>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="7">
+        <v>10</v>
+      </c>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A345" s="7">
+        <v>1</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A346" s="7">
+        <v>2</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="7">
+        <v>3</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="7">
+        <v>4</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A349" s="7">
+        <v>5</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="7">
+        <v>6</v>
+      </c>
+      <c r="B350" s="8"/>
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="7">
+        <v>7</v>
+      </c>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="7">
+        <v>8</v>
+      </c>
+      <c r="B352" s="8"/>
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="7">
+        <v>9</v>
+      </c>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="7">
+        <v>10</v>
+      </c>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A373" s="7">
+        <v>1</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A374" s="7">
+        <v>2</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A375" s="7">
+        <v>3</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="7">
+        <v>4</v>
+      </c>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="7">
+        <v>5</v>
+      </c>
+      <c r="B377" s="3"/>
+      <c r="C377" s="8"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="7">
+        <v>6</v>
+      </c>
+      <c r="B378" s="8"/>
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="7">
+        <v>7</v>
+      </c>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="7">
+        <v>8</v>
+      </c>
+      <c r="B380" s="8"/>
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="7">
+        <v>9</v>
+      </c>
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="7">
+        <v>10</v>
+      </c>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B393" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A405" s="7">
+        <v>1</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A406" s="7">
+        <v>2</v>
+      </c>
+      <c r="B406" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A407" s="7">
+        <v>3</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="7">
+        <v>4</v>
+      </c>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="7">
+        <v>5</v>
+      </c>
+      <c r="B409" s="3"/>
+      <c r="C409" s="8"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="7">
+        <v>6</v>
+      </c>
+      <c r="B410" s="8"/>
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="7">
+        <v>7</v>
+      </c>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="7">
+        <v>8</v>
+      </c>
+      <c r="B412" s="8"/>
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="7">
+        <v>9</v>
+      </c>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="7">
+        <v>10</v>
+      </c>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Final Project Part1/TEST CASE.xlsx
+++ b/Final Project Part1/TEST CASE.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majdh\OneDrive\שולחן העבודה\Automation_bootcamp\Final Project Part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD52280-FE5B-4E52-A3F0-E9E391BFE2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E4884-EDA1-4229-80FF-B37AB8443E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="135">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -481,20 +482,7 @@
     <t>The first showed library should has the smallest distance from the user's location</t>
   </si>
   <si>
-    <t>Test Case 14</t>
-  </si>
-  <si>
-    <t>search with filter</t>
-  </si>
-  <si>
-    <t>valid email and password, item name, item
-type</t>
-  </si>
-  <si>
     <t>return closest library</t>
-  </si>
-  <si>
-    <t>????????bug?????????</t>
   </si>
 </sst>
 </file>
@@ -942,23 +930,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.9140625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="52.69921875" customWidth="1"/>
+    <col min="3" max="3" width="52.70703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -974,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -982,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -990,7 +978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -998,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -1036,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A14" s="7">
         <v>2</v>
       </c>
@@ -1047,7 +1035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -1058,7 +1046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A16" s="7">
         <v>4</v>
       </c>
@@ -1069,7 +1057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A17" s="7">
         <v>5</v>
       </c>
@@ -1080,7 +1068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -1091,40 +1079,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A19" s="7">
         <v>7</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A20" s="7">
         <v>8</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A21" s="7">
         <v>9</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A22" s="7">
         <v>10</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -1140,7 +1128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A42" s="7">
         <v>1</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A43" s="7">
         <v>2</v>
       </c>
@@ -1213,7 +1201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A44" s="7">
         <v>3</v>
       </c>
@@ -1224,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A45" s="7">
         <v>4</v>
       </c>
@@ -1235,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="71.25" x14ac:dyDescent="0.65">
       <c r="A46" s="7">
         <v>5</v>
       </c>
@@ -1246,7 +1234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A47" s="7">
         <v>6</v>
       </c>
@@ -1257,40 +1245,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A48" s="7">
         <v>7</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A49" s="7">
         <v>8</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A50" s="7">
         <v>9</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A51" s="7">
         <v>10</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1322,7 +1310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A66" s="2" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A71" s="4" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +1345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -1368,7 +1356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A73" s="7">
         <v>2</v>
       </c>
@@ -1379,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A74" s="7">
         <v>3</v>
       </c>
@@ -1390,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A75" s="7">
         <v>4</v>
       </c>
@@ -1401,7 +1389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A76" s="7">
         <v>5</v>
       </c>
@@ -1412,47 +1400,47 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A77" s="7">
         <v>6</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A78" s="7">
         <v>7</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A79" s="7">
         <v>8</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A80" s="7">
         <v>9</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A81" s="7">
         <v>10</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1448,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
@@ -1468,7 +1456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -1476,7 +1464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +1472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A103" s="7">
         <v>1</v>
       </c>
@@ -1530,7 +1518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A104" s="7">
         <v>2</v>
       </c>
@@ -1541,7 +1529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A105" s="7">
         <v>3</v>
       </c>
@@ -1552,7 +1540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A106" s="7">
         <v>4</v>
       </c>
@@ -1563,7 +1551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A107" s="7">
         <v>5</v>
       </c>
@@ -1574,47 +1562,47 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A108" s="7">
         <v>6</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A109" s="7">
         <v>7</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A110" s="7">
         <v>8</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A111" s="7">
         <v>9</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A112" s="7">
         <v>10</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A123" s="2" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A127" s="2" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +1669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A133" s="7">
         <v>1</v>
       </c>
@@ -1692,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A134" s="7">
         <v>2</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A135" s="7">
         <v>3</v>
       </c>
@@ -1714,7 +1702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A136" s="7">
         <v>4</v>
       </c>
@@ -1725,7 +1713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A137" s="7">
         <v>5</v>
       </c>
@@ -1736,47 +1724,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A138" s="7">
         <v>6</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A139" s="7">
         <v>7</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A140" s="7">
         <v>8</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A141" s="7">
         <v>9</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A142" s="7">
         <v>10</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A152" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A154" s="2" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A156" s="2" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
@@ -1808,7 +1796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A158" s="2" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A159" s="2" t="s">
         <v>5</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A160" s="2" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A164" s="7">
         <v>1</v>
       </c>
@@ -1854,7 +1842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A165" s="7">
         <v>2</v>
       </c>
@@ -1865,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A166" s="7">
         <v>3</v>
       </c>
@@ -1876,7 +1864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A167" s="7">
         <v>4</v>
       </c>
@@ -1887,7 +1875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A168" s="7">
         <v>5</v>
       </c>
@@ -1898,7 +1886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A169" s="7">
         <v>6</v>
       </c>
@@ -1909,7 +1897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A170" s="7">
         <v>7</v>
       </c>
@@ -1920,7 +1908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A171" s="7">
         <v>8</v>
       </c>
@@ -1931,26 +1919,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A172" s="7">
         <v>9</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A173" s="7">
         <v>10</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A181" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A183" s="2" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +1946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A184" s="2" t="s">
         <v>1</v>
       </c>
@@ -1966,7 +1954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A185" s="2" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
@@ -1982,7 +1970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A187" s="2" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +1978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A188" s="2" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +1986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A189" s="2" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A193" s="4" t="s">
         <v>7</v>
       </c>
@@ -2017,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A194" s="7">
         <v>1</v>
       </c>
@@ -2028,7 +2016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A195" s="7">
         <v>2</v>
       </c>
@@ -2039,7 +2027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A196" s="7">
         <v>3</v>
       </c>
@@ -2050,7 +2038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A197" s="7">
         <v>4</v>
       </c>
@@ -2061,7 +2049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A198" s="7">
         <v>5</v>
       </c>
@@ -2072,21 +2060,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A199" s="7">
         <v>6</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A200" s="7">
         <v>7</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A201" s="7">
         <v>8</v>
       </c>
@@ -2095,26 +2083,26 @@
       </c>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A202" s="7">
         <v>9</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A203" s="7">
         <v>10</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A214" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A216" s="2" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2110,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A218" s="2" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A220" s="2" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
@@ -2162,7 +2150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A222" s="2" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A225" s="4" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A226" s="7">
         <v>1</v>
       </c>
@@ -2192,7 +2180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A227" s="7">
         <v>2</v>
       </c>
@@ -2203,7 +2191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A228" s="7">
         <v>3</v>
       </c>
@@ -2214,7 +2202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A229" s="7">
         <v>4</v>
       </c>
@@ -2225,7 +2213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A230" s="7">
         <v>5</v>
       </c>
@@ -2236,7 +2224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A231" s="7">
         <v>6</v>
       </c>
@@ -2247,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A232" s="7">
         <v>7</v>
       </c>
@@ -2258,7 +2246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A233" s="7">
         <v>8</v>
       </c>
@@ -2269,7 +2257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A234" s="7">
         <v>9</v>
       </c>
@@ -2280,7 +2268,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="71.25" x14ac:dyDescent="0.65">
       <c r="A235" s="7">
         <v>10</v>
       </c>
@@ -2291,12 +2279,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A244" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A245" s="2" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A246" s="2" t="s">
         <v>1</v>
       </c>
@@ -2312,7 +2300,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A247" s="2" t="s">
         <v>2</v>
       </c>
@@ -2320,7 +2308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A249" s="2" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A250" s="2" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A251" s="2" t="s">
         <v>6</v>
       </c>
@@ -2352,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A254" s="4" t="s">
         <v>7</v>
       </c>
@@ -2363,7 +2351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A255" s="7">
         <v>1</v>
       </c>
@@ -2374,7 +2362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A256" s="7">
         <v>2</v>
       </c>
@@ -2385,7 +2373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A257" s="7">
         <v>3</v>
       </c>
@@ -2396,7 +2384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A258" s="7">
         <v>4</v>
       </c>
@@ -2407,7 +2395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A259" s="7">
         <v>5</v>
       </c>
@@ -2418,7 +2406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A260" s="7">
         <v>6</v>
       </c>
@@ -2429,7 +2417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A261" s="7">
         <v>7</v>
       </c>
@@ -2440,7 +2428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A262" s="7">
         <v>8</v>
       </c>
@@ -2451,7 +2439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A263" s="7">
         <v>9</v>
       </c>
@@ -2462,7 +2450,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A264" s="7">
         <v>10</v>
       </c>
@@ -2473,17 +2461,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A265" s="7"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A274" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A275" s="2" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A276" s="2" t="s">
         <v>1</v>
       </c>
@@ -2499,7 +2487,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A277" s="2" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
@@ -2515,7 +2503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A279" s="2" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A280" s="2" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A281" s="2" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A284" s="4" t="s">
         <v>7</v>
       </c>
@@ -2550,7 +2538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A285" s="7">
         <v>1</v>
       </c>
@@ -2561,7 +2549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A286" s="7">
         <v>2</v>
       </c>
@@ -2572,7 +2560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A287" s="7">
         <v>3</v>
       </c>
@@ -2583,7 +2571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A288" s="7">
         <v>4</v>
       </c>
@@ -2594,7 +2582,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A289" s="7">
         <v>5</v>
       </c>
@@ -2605,7 +2593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A290" s="7">
         <v>6</v>
       </c>
@@ -2616,7 +2604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A291" s="7">
         <v>7</v>
       </c>
@@ -2627,7 +2615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A292" s="7">
         <v>8</v>
       </c>
@@ -2638,7 +2626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A293" s="7">
         <v>9</v>
       </c>
@@ -2649,7 +2637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A294" s="7">
         <v>10</v>
       </c>
@@ -2660,7 +2648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A295" s="7">
         <v>11</v>
       </c>
@@ -2671,7 +2659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A296" s="7">
         <v>12</v>
       </c>
@@ -2682,7 +2670,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="57" x14ac:dyDescent="0.65">
       <c r="A297" s="7">
         <v>13</v>
       </c>
@@ -2693,12 +2681,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A304" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A306" s="2" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A307" s="2" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +2702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A308" s="2" t="s">
         <v>2</v>
       </c>
@@ -2722,7 +2710,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A309" s="2" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A310" s="2" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A311" s="2" t="s">
         <v>5</v>
       </c>
@@ -2746,7 +2734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A312" s="2" t="s">
         <v>6</v>
       </c>
@@ -2754,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A315" s="4" t="s">
         <v>7</v>
       </c>
@@ -2765,7 +2753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A316" s="7">
         <v>1</v>
       </c>
@@ -2776,7 +2764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A317" s="7">
         <v>2</v>
       </c>
@@ -2787,7 +2775,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A318" s="7">
         <v>3</v>
       </c>
@@ -2798,7 +2786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A319" s="7">
         <v>4</v>
       </c>
@@ -2809,7 +2797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A320" s="7">
         <v>5</v>
       </c>
@@ -2820,7 +2808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A321" s="7">
         <v>6</v>
       </c>
@@ -2831,7 +2819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A322" s="7">
         <v>7</v>
       </c>
@@ -2842,7 +2830,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A323" s="7">
         <v>8</v>
       </c>
@@ -2853,26 +2841,26 @@
         <v>113</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A324" s="7">
         <v>9</v>
       </c>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A325" s="7">
         <v>10</v>
       </c>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A333" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A335" s="2" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2868,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A336" s="2" t="s">
         <v>1</v>
       </c>
@@ -2888,7 +2876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A337" s="2" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2884,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A338" s="2" t="s">
         <v>3</v>
       </c>
@@ -2904,7 +2892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A339" s="2" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A340" s="2" t="s">
         <v>5</v>
       </c>
@@ -2920,7 +2908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A341" s="2" t="s">
         <v>6</v>
       </c>
@@ -2928,7 +2916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A344" s="4" t="s">
         <v>7</v>
       </c>
@@ -2939,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A345" s="7">
         <v>1</v>
       </c>
@@ -2950,7 +2938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A346" s="7">
         <v>2</v>
       </c>
@@ -2961,7 +2949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A347" s="7">
         <v>3</v>
       </c>
@@ -2972,7 +2960,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A348" s="7">
         <v>4</v>
       </c>
@@ -2983,7 +2971,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A349" s="7">
         <v>5</v>
       </c>
@@ -2994,55 +2982,55 @@
         <v>129</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A350" s="7">
         <v>6</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="3"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A351" s="7">
         <v>7</v>
       </c>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A352" s="7">
         <v>8</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="3"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A353" s="7">
         <v>9</v>
       </c>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A354" s="7">
         <v>10</v>
       </c>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A361" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A363" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A364" s="2" t="s">
         <v>1</v>
       </c>
@@ -3050,7 +3038,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A365" s="2" t="s">
         <v>2</v>
       </c>
@@ -3058,7 +3046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A366" s="2" t="s">
         <v>3</v>
       </c>
@@ -3066,7 +3054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A367" s="2" t="s">
         <v>4</v>
       </c>
@@ -3074,7 +3062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A368" s="2" t="s">
         <v>5</v>
       </c>
@@ -3082,7 +3070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A369" s="2" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A372" s="4" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A373" s="7">
         <v>1</v>
       </c>
@@ -3112,7 +3100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A374" s="7">
         <v>2</v>
       </c>
@@ -3123,7 +3111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
       <c r="A375" s="7">
         <v>3</v>
       </c>
@@ -3134,213 +3122,154 @@
         <v>133</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A376" s="7">
         <v>4</v>
       </c>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A377" s="7">
         <v>5</v>
       </c>
       <c r="B377" s="3"/>
       <c r="C377" s="8"/>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A378" s="7">
         <v>6</v>
       </c>
       <c r="B378" s="8"/>
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A379" s="7">
         <v>7</v>
       </c>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A380" s="7">
         <v>8</v>
       </c>
       <c r="B380" s="8"/>
       <c r="C380" s="3"/>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A381" s="7">
         <v>9</v>
       </c>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A382" s="7">
         <v>10</v>
       </c>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B393" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B395" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B396" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B397" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B398" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B399" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B400" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B401" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C404" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A405" s="7">
-        <v>1</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A406" s="7">
-        <v>2</v>
-      </c>
-      <c r="B406" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A407" s="7">
-        <v>3</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C407" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="7">
-        <v>4</v>
-      </c>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A395" s="2"/>
+      <c r="B395" s="3"/>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A396" s="2"/>
+      <c r="B396" s="3"/>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A397" s="2"/>
+      <c r="B397" s="8"/>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A398" s="2"/>
+      <c r="B398" s="8"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A399" s="2"/>
+      <c r="B399" s="3"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A400" s="2"/>
+      <c r="B400" s="3"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A401" s="2"/>
+      <c r="B401" s="3"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A404" s="4"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A405" s="7"/>
+      <c r="B405" s="6"/>
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A406" s="7"/>
+      <c r="B406" s="8"/>
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A407" s="7"/>
+      <c r="B407" s="8"/>
+      <c r="C407" s="8"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A408" s="7"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="7">
-        <v>5</v>
-      </c>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A409" s="7"/>
       <c r="B409" s="3"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="7">
-        <v>6</v>
-      </c>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A410" s="7"/>
       <c r="B410" s="8"/>
       <c r="C410" s="3"/>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="7">
-        <v>7</v>
-      </c>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A411" s="7"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="7">
-        <v>8</v>
-      </c>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="3"/>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="7">
-        <v>9</v>
-      </c>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A413" s="7"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="7">
-        <v>10</v>
-      </c>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A414" s="7"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CF6A82-DCC0-4F75-B4DF-41E6FCCA9D2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final Project Part1/TEST CASE.xlsx
+++ b/Final Project Part1/TEST CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majdh\OneDrive\שולחן העבודה\Automation_bootcamp\Final Project Part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E4884-EDA1-4229-80FF-B37AB8443E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3057C-4442-4CC2-8E64-872F03FDD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="138">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t>return closest library</t>
+  </si>
+  <si>
+    <t>user location</t>
+  </si>
+  <si>
+    <t>Click cookies button</t>
+  </si>
+  <si>
+    <t>Cookies pop up will disappear</t>
   </si>
 </sst>
 </file>
@@ -930,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -3043,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -3089,15 +3098,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A373" s="7">
         <v>1</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">

--- a/Final Project Part1/TEST CASE.xlsx
+++ b/Final Project Part1/TEST CASE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majdh\OneDrive\שולחן העבודה\Automation_bootcamp\Final Project Part1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3057C-4442-4CC2-8E64-872F03FDD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C771E8B-E93F-4157-A94D-22D70B77E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="139">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -145,13 +145,7 @@
 will appear</t>
   </si>
   <si>
-    <t xml:space="preserve">Book search while signed in </t>
-  </si>
-  <si>
     <t>Run sign in flow as mentioned in the first test case</t>
-  </si>
-  <si>
-    <t>valid email and password, book name</t>
   </si>
   <si>
     <t>Enter the book name in the search bar that
@@ -492,6 +486,15 @@
   </si>
   <si>
     <t>Cookies pop up will disappear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book search </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> book name</t>
+  </si>
+  <si>
+    <t>book name</t>
   </si>
 </sst>
 </file>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
   <dimension ref="A1:C414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -952,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.65">
@@ -1118,7 +1121,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
@@ -1284,7 +1287,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.65">
@@ -1292,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.65">
@@ -1300,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.65">
@@ -1308,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1359,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57" x14ac:dyDescent="0.65">
@@ -1370,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>19</v>
@@ -1381,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.65">
@@ -1392,10 +1395,10 @@
         <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1403,10 +1406,10 @@
         <v>5</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.65">
@@ -1446,7 +1449,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A91" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.65">
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1462,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.65">
@@ -1470,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1521,10 +1524,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="57" x14ac:dyDescent="0.65">
@@ -1532,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>19</v>
@@ -1543,10 +1546,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.65">
@@ -1554,10 +1557,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -1565,10 +1568,10 @@
         <v>5</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.65">
@@ -1608,7 +1611,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A121" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.65">
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
@@ -1624,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.65">
@@ -1632,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
@@ -1683,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="57" x14ac:dyDescent="0.65">
@@ -1694,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>19</v>
@@ -1705,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.65">
@@ -1716,10 +1719,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1727,10 +1730,10 @@
         <v>5</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.65">
@@ -1770,7 +1773,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A152" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.65">
@@ -1778,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
@@ -1786,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.65">
@@ -1794,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
@@ -1845,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>26</v>
@@ -1856,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>19</v>
@@ -1867,10 +1870,10 @@
         <v>3</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1878,10 +1881,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1889,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1900,10 +1903,10 @@
         <v>6</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.65">
@@ -1911,10 +1914,10 @@
         <v>7</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -1922,10 +1925,10 @@
         <v>8</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.65">
@@ -1944,7 +1947,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A181" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.65">
@@ -1952,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
@@ -1960,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.65">
@@ -2019,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>26</v>
@@ -2030,10 +2033,10 @@
         <v>2</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.65">
@@ -2041,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2052,10 +2055,10 @@
         <v>4</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2063,10 +2066,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.65">
@@ -2088,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C201" s="3"/>
     </row>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A214" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.65">
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
@@ -2124,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="28.5" x14ac:dyDescent="0.65">
@@ -2132,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="42.75" x14ac:dyDescent="0.65">
@@ -2183,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>26</v>
@@ -2194,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>19</v>
@@ -2205,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2216,10 +2219,10 @@
         <v>4</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.65">
@@ -2227,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>19</v>
@@ -2238,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>19</v>
@@ -2249,10 +2252,10 @@
         <v>7</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2260,10 +2263,10 @@
         <v>8</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.65">
@@ -2271,10 +2274,10 @@
         <v>9</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="71.25" x14ac:dyDescent="0.65">
@@ -2282,15 +2285,15 @@
         <v>10</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A244" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.65">
@@ -2298,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2306,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2314,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2365,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>26</v>
@@ -2376,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>19</v>
@@ -2387,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2398,10 +2401,10 @@
         <v>4</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.65">
@@ -2409,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C259" s="8" t="s">
         <v>19</v>
@@ -2420,7 +2423,7 @@
         <v>6</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>19</v>
@@ -2431,10 +2434,10 @@
         <v>7</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2442,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.65">
@@ -2453,10 +2456,10 @@
         <v>9</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2464,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.65">
@@ -2477,7 +2480,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A274" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.65">
@@ -2485,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2493,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2501,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2552,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>26</v>
@@ -2563,7 +2566,7 @@
         <v>2</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>19</v>
@@ -2574,10 +2577,10 @@
         <v>3</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2585,10 +2588,10 @@
         <v>4</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.65">
@@ -2596,7 +2599,7 @@
         <v>5</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>19</v>
@@ -2607,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>19</v>
@@ -2618,10 +2621,10 @@
         <v>7</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2629,10 +2632,10 @@
         <v>8</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.65">
@@ -2640,10 +2643,10 @@
         <v>9</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.65">
@@ -2651,10 +2654,10 @@
         <v>10</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2662,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2673,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="57" x14ac:dyDescent="0.65">
@@ -2684,15 +2687,15 @@
         <v>13</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A304" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.65">
@@ -2700,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.65">
@@ -2708,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.65">
@@ -2716,7 +2719,7 @@
         <v>2</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2767,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>26</v>
@@ -2778,10 +2781,10 @@
         <v>2</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2789,7 +2792,7 @@
         <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>19</v>
@@ -2800,10 +2803,10 @@
         <v>4</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2811,10 +2814,10 @@
         <v>5</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2822,10 +2825,10 @@
         <v>6</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.65">
@@ -2833,10 +2836,10 @@
         <v>7</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2844,10 +2847,10 @@
         <v>8</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.65">
@@ -2866,7 +2869,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A333" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.65">
@@ -2874,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.65">
@@ -2882,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.65">
@@ -2890,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -2941,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>26</v>
@@ -2952,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.65">
@@ -2963,10 +2966,10 @@
         <v>3</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.65">
@@ -2974,10 +2977,10 @@
         <v>4</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -2985,10 +2988,10 @@
         <v>5</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.65">
@@ -3028,7 +3031,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A361" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.65">
@@ -3036,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.65">
@@ -3044,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.65">
@@ -3052,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -3103,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -3114,10 +3117,10 @@
         <v>2</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="42.75" x14ac:dyDescent="0.65">
@@ -3125,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.65">
